--- a/www/IndicatorsPerCountry/Serbia_RegulationofParticipationPARREG_TerritorialRef_2008_2012_CCode_688.xlsx
+++ b/www/IndicatorsPerCountry/Serbia_RegulationofParticipationPARREG_TerritorialRef_2008_2012_CCode_688.xlsx
@@ -81,13 +81,13 @@
     <t>Marshall, M. G., T. R. Gurr and K. Jaggers (2015). Regulation of Participation (PARREG). http://hdl.handle.net/10622/V6AEFF, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_V6AEFF.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_V6AEFF.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_V6AEFF.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_V6AEFF.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_V6AEFF.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_V6AEFF.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Serbia_RegulationofParticipationPARREG_TerritorialRef_2008_2012_CCode_688.xlsx
+++ b/www/IndicatorsPerCountry/Serbia_RegulationofParticipationPARREG_TerritorialRef_2008_2012_CCode_688.xlsx
@@ -78,7 +78,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/Serbia_RegulationofParticipationPARREG_TerritorialRef_2008_2012_CCode_688.xlsx</t>
   </si>
   <si>
-    <t>Marshall, M. G., T. R. Gurr and K. Jaggers (2015). Regulation of Participation (PARREG). http://hdl.handle.net/10622/V6AEFF, accessed via the Clio Infra website.</t>
+    <t>Marshall, M. G., T. R. Gurr, and K. Jaggers (2015). Regulation of Participation (PARREG). http://hdl.handle.net/10622/V6AEFF, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_V6AEFF.xml</t>
